--- a/Manual Testing/Test Case Writing/Login Page of Netflix.xlsx
+++ b/Manual Testing/Test Case Writing/Login Page of Netflix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Manual Testing\Test Case Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071094A5-8976-4460-BC09-EF6D2D6DA381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9228C153-AED6-4C50-9DEE-71F11A49D3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="128">
   <si>
     <t>Project Name:</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>Verify that user is redirected to homepage after successful sign in</t>
-  </si>
-  <si>
-    <t>sign in:: Page source</t>
   </si>
   <si>
     <t>Verify whether the sign in form is revealing any security information by viewing the page source</t>
@@ -488,6 +485,9 @@
   </si>
   <si>
     <t>Click here</t>
+  </si>
+  <si>
+    <t>Page source</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,6 +729,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1012,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -1092,7 +1095,7 @@
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>33</v>
@@ -1112,13 +1115,13 @@
       <c r="G7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>127</v>
+      <c r="H7" s="27" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>36</v>
@@ -1138,11 +1141,13 @@
       <c r="G8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>36</v>
@@ -1162,11 +1167,13 @@
       <c r="G9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>36</v>
@@ -1190,10 +1197,10 @@
     </row>
     <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>48</v>
@@ -1208,16 +1215,16 @@
         <v>49</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>50</v>
@@ -1226,22 +1233,24 @@
         <v>20</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>51</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="19"/>
+        <v>60</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>52</v>
@@ -1250,22 +1259,24 @@
         <v>21</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>51</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="19"/>
+        <v>60</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>53</v>
@@ -1274,46 +1285,50 @@
         <v>22</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>51</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>51</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>25</v>
@@ -1322,46 +1337,46 @@
         <v>12</v>
       </c>
       <c r="E16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" s="12" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>55</v>
@@ -1370,7 +1385,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>29</v>
@@ -1378,71 +1393,77 @@
       <c r="G18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>91</v>
-      </c>
       <c r="C19" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="20"/>
+        <v>93</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="E20" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>99</v>
-      </c>
       <c r="F20" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="21" spans="1:8" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>30</v>
@@ -1450,95 +1471,103 @@
       <c r="G21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="22" spans="1:8" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="D22" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="F22" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="23" spans="1:8" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="F23" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="24" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="25" spans="1:8" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>27</v>
@@ -2175,9 +2204,24 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1" display="Pic1" xr:uid="{AEBDCB6E-A865-4665-AC2B-3394986D76F3}"/>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{AEBDCB6E-A865-4665-AC2B-3394986D76F3}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{D072FA26-A782-4DA3-B00E-977E65477838}"/>
+    <hyperlink ref="H9" r:id="rId3" xr:uid="{7CF73322-8111-414D-9FB4-6B25B762E1A2}"/>
+    <hyperlink ref="H12" r:id="rId4" xr:uid="{42005162-8233-4BF7-BFCE-A29C2044CA8F}"/>
+    <hyperlink ref="H13" r:id="rId5" xr:uid="{91FF912C-D683-4F3B-AE80-2D24EACF5208}"/>
+    <hyperlink ref="H14" r:id="rId6" xr:uid="{34A7914D-588D-4B70-930B-F426E91A14D7}"/>
+    <hyperlink ref="H15" r:id="rId7" xr:uid="{325AF0C0-E7E5-41E1-8D5E-88761BFD5B34}"/>
+    <hyperlink ref="H18" r:id="rId8" xr:uid="{A4B35F80-3CA2-41E1-AF52-9D559F986616}"/>
+    <hyperlink ref="H19" r:id="rId9" xr:uid="{DC6B23FC-6A27-4BFB-A2E7-2FFC0370E0A1}"/>
+    <hyperlink ref="H18:H19" r:id="rId10" display="Click here" xr:uid="{4610C4DA-05B7-40FB-B61E-E13046363E32}"/>
+    <hyperlink ref="H20" r:id="rId11" xr:uid="{E5FD3AD3-45F0-4433-B332-08C5A7182BE9}"/>
+    <hyperlink ref="H18:H20" r:id="rId12" display="Click here" xr:uid="{483A176F-21E2-4E04-8CFA-D63033470C8E}"/>
+    <hyperlink ref="H22" r:id="rId13" xr:uid="{A750F8A8-71B1-4FAC-B2C7-0F3AE61A4801}"/>
+    <hyperlink ref="H23" r:id="rId14" xr:uid="{4DE288E5-E932-461E-BA68-A2F140622E34}"/>
+    <hyperlink ref="H21" r:id="rId15" xr:uid="{42D723D0-8BE0-4A5F-89A7-BB990F4E3CD4}"/>
+    <hyperlink ref="H24" r:id="rId16" xr:uid="{0940E56C-B2DB-434B-B93C-EAA651D3DB15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>